--- a/صيدليات دكتور مصطفي طلعت_2026-01-09_18-15.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-09_18-15.xlsx
@@ -242,6 +242,9 @@
     <t>OMEGAPRESS 0.1 MG 30 TABS.</t>
   </si>
   <si>
+    <t>OMEGAPRESS 0.2 MG 30 TABS.</t>
+  </si>
+  <si>
     <t>OPLEX N PLUS 10 SUPP.</t>
   </si>
   <si>
@@ -306,6 +309,9 @@
   </si>
   <si>
     <t>TRILLERG EYE DROPS 10 ML</t>
+  </si>
+  <si>
+    <t>URGINAFECT 5MG 20 F.C. TABLETS</t>
   </si>
   <si>
     <t>URIPAN X.R. 10 MG 30 TAB.</t>
@@ -2270,13 +2276,13 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>32</v>
+        <v>411</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
@@ -2296,13 +2302,13 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
@@ -2322,13 +2328,13 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
@@ -2340,7 +2346,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2348,17 +2354,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2366,7 +2372,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2374,17 +2380,17 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>160.05000000000001</v>
+        <v>27</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" ht="24.75" customHeight="1">
@@ -2400,17 +2406,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>8</v>
+        <v>160.05000000000001</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2418,7 +2424,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2426,13 +2432,13 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
       <c r="K60" s="8"/>
       <c r="L60" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
@@ -2444,7 +2450,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2452,17 +2458,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>45</v>
+        <v>7</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2478,13 +2484,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>86.5</v>
+        <v>45</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2510,7 +2516,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>67</v>
+        <v>86.5</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2530,17 +2536,17 @@
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c t="s" r="H64" s="8">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="I64" s="8"/>
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="25.5" customHeight="1">
@@ -2556,17 +2562,17 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>282</v>
+        <v>62</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
-        <v>82</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" ht="24.75" customHeight="1">
@@ -2582,17 +2588,17 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>30.5</v>
+        <v>282</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
-        <v>9</v>
+        <v>83</v>
       </c>
     </row>
     <row r="67" ht="25.5" customHeight="1">
@@ -2608,13 +2614,13 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>31.5</v>
+        <v>30.5</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
@@ -2626,7 +2632,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2634,17 +2640,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>18</v>
+        <v>96</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>60</v>
+        <v>31.5</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2666,7 +2672,7 @@
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>123</v>
+        <v>60</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
@@ -2686,13 +2692,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>24</v>
+        <v>123</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2718,11 +2724,11 @@
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>26.100000000000001</v>
+        <v>24</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2738,13 +2744,13 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>132</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
@@ -2764,17 +2770,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>102</v>
+        <v>11</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>102</v>
+        <v>26.100000000000001</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>33</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2782,7 +2788,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2790,17 +2796,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>94.5</v>
+        <v>132</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2808,7 +2814,7 @@
         <v>72</v>
       </c>
       <c t="s" r="B75" s="7">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
@@ -2816,13 +2822,13 @@
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c t="s" r="H75" s="8">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I75" s="8"/>
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
@@ -2834,7 +2840,7 @@
         <v>73</v>
       </c>
       <c t="s" r="B76" s="7">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
@@ -2848,11 +2854,11 @@
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>49</v>
+        <v>94.5</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2860,7 +2866,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -2868,17 +2874,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>11</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -2894,13 +2900,13 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
@@ -2912,7 +2918,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -2920,13 +2926,13 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
@@ -2938,7 +2944,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -2946,17 +2952,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>113</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -2964,7 +2970,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -2972,17 +2978,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>115</v>
+        <v>18</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -2990,7 +2996,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -2998,17 +3004,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>11</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3016,7 +3022,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3024,17 +3030,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3042,7 +3048,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3050,13 +3056,13 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
@@ -3068,7 +3074,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3076,51 +3082,103 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
         <v>11</v>
       </c>
     </row>
-    <row r="86" ht="25.5" customHeight="1">
-      <c r="K86" s="10">
-        <v>5149.2700000000004</v>
-      </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="10"/>
-    </row>
-    <row r="87" ht="16.5" customHeight="1">
-      <c t="s" r="A87" s="11">
+    <row r="86" ht="24.75" customHeight="1">
+      <c r="A86" s="6">
+        <v>83</v>
+      </c>
+      <c t="s" r="B86" s="7">
+        <v>122</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c t="s" r="H86" s="8">
+        <v>107</v>
+      </c>
+      <c r="I86" s="8"/>
+      <c r="J86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="9">
+        <v>24</v>
+      </c>
+      <c r="M86" s="9"/>
+      <c t="s" r="N86" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" ht="25.5" customHeight="1">
+      <c r="A87" s="6">
+        <v>84</v>
+      </c>
+      <c t="s" r="B87" s="7">
         <v>123</v>
       </c>
-      <c r="B87" s="11"/>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c t="s" r="F87" s="12">
+      <c r="C87" s="7"/>
+      <c r="D87" s="7"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c t="s" r="H87" s="8">
         <v>124</v>
       </c>
-      <c r="G87" s="12"/>
-      <c r="H87" s="13"/>
-      <c t="s" r="I87" s="14">
+      <c r="I87" s="8"/>
+      <c r="J87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9">
+        <v>30</v>
+      </c>
+      <c r="M87" s="9"/>
+      <c t="s" r="N87" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" ht="25.5" customHeight="1">
+      <c r="K88" s="10">
+        <v>5628.6700000000001</v>
+      </c>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" ht="17.25" customHeight="1">
+      <c t="s" r="A89" s="11">
         <v>125</v>
       </c>
-      <c r="J87" s="14"/>
-      <c r="K87" s="14"/>
-      <c r="L87" s="14"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="14"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
+      <c r="E89" s="11"/>
+      <c t="s" r="F89" s="12">
+        <v>126</v>
+      </c>
+      <c r="G89" s="12"/>
+      <c r="H89" s="13"/>
+      <c t="s" r="I89" s="14">
+        <v>127</v>
+      </c>
+      <c r="J89" s="14"/>
+      <c r="K89" s="14"/>
+      <c r="L89" s="14"/>
+      <c r="M89" s="14"/>
+      <c r="N89" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="257">
+  <mergeCells count="263">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3374,10 +3432,16 @@
     <mergeCell ref="B85:G85"/>
     <mergeCell ref="H85:K85"/>
     <mergeCell ref="L85:M85"/>
-    <mergeCell ref="K86:N86"/>
-    <mergeCell ref="A87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="I87:N87"/>
+    <mergeCell ref="B86:G86"/>
+    <mergeCell ref="H86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="B87:G87"/>
+    <mergeCell ref="H87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="K88:N88"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="I89:N89"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
